--- a/sampleData/thesis.xlsx
+++ b/sampleData/thesis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\4-1\New Technology\thesis data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_27_8\n.05-docker-mongo-new-tech\newtech\sampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948378B2-B26C-47B0-9687-1320ADB21F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06DA867-3A06-4B70-8EF9-FBD4D137E809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>title</t>
   </si>
@@ -59,9 +59,6 @@
     <t>author</t>
   </si>
   <si>
-    <t>member 1</t>
-  </si>
-  <si>
     <t>instructor</t>
   </si>
   <si>
@@ -74,12 +71,6 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">member 3 </t>
-  </si>
-  <si>
-    <t>member 2</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -95,15 +86,9 @@
     <t>Capstone project</t>
   </si>
   <si>
-    <t>{ id: '', name:'', class:'', major:''}</t>
-  </si>
-  <si>
     <t>2017-2021</t>
   </si>
   <si>
-    <t>{ id: '01', name:'Lê Văn Vinh', faculty:'Information Technology'}</t>
-  </si>
-  <si>
     <t>BUILDING AN ECOMERCE WEBSITE FOR SELLING ELECTRONIC COMPONENTS</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>IT-2021-01-02</t>
   </si>
   <si>
-    <t>{ id: '02', name:'Nguyễn Trần Thi Văn', faculty:'Information Technology'}</t>
-  </si>
-  <si>
     <t>BUILD AN E-COMMERCE WEBSITE USING PHP</t>
   </si>
   <si>
@@ -134,30 +116,12 @@
     <t>Building an e-commerce website for selling various products using php</t>
   </si>
   <si>
-    <t>{ id: '17110024', name:'Đỗ Nguyễn Hoàng Hải', class:'17110CLA01', major:''Information Technology'}</t>
-  </si>
-  <si>
-    <t>{ id: '17110009', name:'Nguyễn Hoàng Danh', class:'17110CLA01', major:'Information Technology'}</t>
-  </si>
-  <si>
-    <t>{ id: '18110020', name:'Võ Minh Huy', class:'18110CLA04', major:'Information Technology'}</t>
-  </si>
-  <si>
     <t>BUILD A WEBSITE AND APP MOBILE TO PUBLISHED AND FIND MOTEL</t>
   </si>
   <si>
     <t>Building a website to publish and find motels</t>
   </si>
   <si>
-    <t>{ id: '17110139', name:'Chu Minh Hoàng ', class:'17110CLST3 - ST1', major:'Information Technology'}</t>
-  </si>
-  <si>
-    <t>{ id: '17110168', name:'Phạm Huỳnh Thanh Lâm', class:'17110CLST3 - ST1', major:'Information Technology'}</t>
-  </si>
-  <si>
-    <t>{ id: '03', name:'Trần Công Tú', faculty:'Information Technology'}</t>
-  </si>
-  <si>
     <t>BUILD A WEBSITE THAT SALE ELECTRONICS USING ANGULAR .NET TECHNOLOGY</t>
   </si>
   <si>
@@ -170,29 +134,83 @@
     <t>The author team will make an electronic sales website using Angular .Net technology, including many basic functions of a sales website such as users can go to search for products, view product information, place orders, order tracking, online payment... Besides, administrators can make detailed statistics of data over time, management operations are also guaranteed such as product management, customer management, order management,... and many other necessary functions.</t>
   </si>
   <si>
-    <t>{ id: '18110212', name:'Hoang Manh Tien', class:'18110CLST1', major:'Information Technology'}</t>
-  </si>
-  <si>
-    <t>{ id: '17110004', name:'Vu Tuan Anh', class:'17110CLA01', major:'Information Technology'}</t>
-  </si>
-  <si>
-    <t>{ id: '17110075', name:'Pham Vu Thien', class:'17110CLA01', major:'Information Technology'}</t>
-  </si>
-  <si>
-    <t>{ id: '18110010', name:'Nguyễn Cảnh Dũng', class:'18110CLA01', major:'Information Technology'}</t>
-  </si>
-  <si>
-    <t>{ id: '18110038', name:'Nguyễn Minh Phú', class:'18110CLA04', major:'Information Technology'}</t>
-  </si>
-  <si>
-    <t>{ id: '18110200', name:'Pham Tien Thao', class:'18110CLST1', major:'Information Technology'}</t>
+    <t>member_1</t>
+  </si>
+  <si>
+    <t>member_2</t>
+  </si>
+  <si>
+    <t>member_3</t>
+  </si>
+  <si>
+    <t>[{"id": "18110020", "name": "Võ Minh Huy", "class": "18110CLA04", "major": "Information Technology"}]</t>
+  </si>
+  <si>
+    <t>[{"id": "02", "name": "Nguyễn Trần Thi Văn", "faculty": "Information Technology"}]</t>
+  </si>
+  <si>
+    <t>[{"id": "17110004", "name": "Vu Tuan Anh", "class": "17110CLA01", "major": "Information Technology"}]</t>
+  </si>
+  <si>
+    <t>[{"id": "17110139", "name": "Chu Minh Hoàng", "class": "17110CLST3 - ST1", "major": "Information Technology"}]</t>
+  </si>
+  <si>
+    <t>[{"id": "03", "name": "Trần Công Tú", "faculty": "Information Technology"}]</t>
+  </si>
+  <si>
+    <t>[{"id": "18110200", "name": "Pham Tien Thao", "class": "18110CLST1", "major": "Information Technology"}]</t>
+  </si>
+  <si>
+    <t>[{"id":"01", "name":"Lê Văn Vinh", "faculty":"Information Technology"}]</t>
+  </si>
+  <si>
+    <t>[{"id":"17110009", "name":"Nguyễn Hoàng Danh", "class":"17110CLA01", "major":"Information Technology"}</t>
+  </si>
+  <si>
+    <t>{"id":"17110024", "name":"Đỗ Nguyễn Hoàng Hải", "class":"17110CLA01", "major":"Information Technology"}]</t>
+  </si>
+  <si>
+    <t>[{"id": "18110020", "name": "Võ Minh Huy", "class": "18110CLA04", "major": "Information Technology"}</t>
+  </si>
+  <si>
+    <t>{"id": "17110075", "name": "Pham Vu Thien", "class": "17110CLA01", "major": "Information Technology"}]</t>
+  </si>
+  <si>
+    <t>[{"id": "17110004", "name": "Vu Tuan Anh", "class": "17110CLA01", "major": "Information Technology"}</t>
+  </si>
+  <si>
+    <t>[{"id": "17110139", "name": "Chu Minh Hoàng", "class": "17110CLST3 - ST1", "major": "Information Technology"}</t>
+  </si>
+  <si>
+    <t>{"id": "17110168", "name": "Phạm Huỳnh Thanh Lâm", "class": "17110CLST3 - ST1", "major": "Information Technology"}]</t>
+  </si>
+  <si>
+    <t>[{"id": "18110200", "name": "Pham Tien Thao", "class": "18110CLST1", "major": "Information Technology"}</t>
+  </si>
+  <si>
+    <t>{"id": "18110212", "name": "Hoang Manh Tien", "class": "18110CLST1", "major": "Information Technology"}]</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>software engineering</t>
+  </si>
+  <si>
+    <t>{"id": "18110038", "name": "Nguyễn Minh Phú", "class": "18110CLA04", "major": "Information Technology"}</t>
+  </si>
+  <si>
+    <t>{"id": "18110010", "name": "Nguyễn Cảnh Dũng", "class": "18110CLA01", "major": "Information Technology"}]</t>
+  </si>
+  <si>
+    <t>[{"id" : "17110009", "name" : "Nguyễn Hoàng Danh", "class" : "17110CLA01", "major" : "Information Technology"}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +228,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,12 +256,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,278 +543,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="2" max="3" width="44.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" customWidth="1"/>
+    <col min="11" max="11" width="31.5546875" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="104.25" customHeight="1">
+    <row r="2" spans="1:16" ht="104.25" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44257</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44397</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44257</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44397</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
+      <c r="P2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="75" customHeight="1">
+    <row r="3" spans="1:16" ht="75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
         <v>44987</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>45127</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
       <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="81.75" customHeight="1">
+    <row r="4" spans="1:16" ht="81.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
         <v>44287</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>44391</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="100.5" customHeight="1">
+    <row r="5" spans="1:16" ht="100.5" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
         <v>44287</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>44391</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N5" t="s">
-        <v>18</v>
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="90.75" customHeight="1">
+    <row r="6" spans="1:16" ht="90.75" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44531</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44606</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1">
-        <v>44531</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44606</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
